--- a/test_data/DOH_Test_Data.xlsx
+++ b/test_data/DOH_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar628\PycharmProjects\DOH\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D73245-F3C9-4C1C-BADB-A91BD083084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E49B3-FED0-49C9-9E7E-B41E83806EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -32,7 +32,7 @@
     <t>edTest.User05@nhssc.net</t>
   </si>
   <si>
-    <t>Welcome123</t>
+    <t>+1~oR$Yk]G0w</t>
   </si>
   <si>
     <t>reg_id</t>
@@ -68,6 +68,9 @@
     <t>Purchase_Order</t>
   </si>
   <si>
+    <t>Promised_ship_date</t>
+  </si>
+  <si>
     <t>Supplier_Details</t>
   </si>
   <si>
@@ -95,10 +98,16 @@
     <t>5246</t>
   </si>
   <si>
-    <t>2128319</t>
-  </si>
-  <si>
-    <t>Promised_ship_date</t>
+    <t>438121</t>
+  </si>
+  <si>
+    <t>X102002259</t>
+  </si>
+  <si>
+    <t>BRIDGE VALLEY COFFEE &amp; TEA LTD</t>
+  </si>
+  <si>
+    <t>02/02/24 06:25</t>
   </si>
 </sst>
 </file>
@@ -468,13 +477,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +515,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +529,7 @@
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,45 +568,52 @@
         <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>903</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
